--- a/training_data/data_set4/RandomRequestNumberclientv5#loops4#requests_batch200#Fri-Jul-26-18-36-52-2024.xlsx
+++ b/training_data/data_set4/RandomRequestNumberclientv5#loops4#requests_batch200#Fri-Jul-26-18-36-52-2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model_fit\training\training_data\data_set4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\training\training_data\data_set4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B725957D-9171-43D9-B3D9-D018E86A2CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A29CD5-9F5D-444B-B109-E1076C1281B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10212" yWindow="444" windowWidth="35820" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -89,17 +89,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -108,7 +108,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -437,35 +437,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J203" sqref="A203:XFD203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.8984375" customWidth="1"/>
-    <col min="11" max="11" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="42.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>124276</v>
       </c>
@@ -571,7 +572,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>89639</v>
       </c>
@@ -624,7 +625,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>431408</v>
       </c>
@@ -677,7 +678,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>194355</v>
       </c>
@@ -730,7 +731,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>354111</v>
       </c>
@@ -783,7 +784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>29191</v>
       </c>
@@ -836,7 +837,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>442198</v>
       </c>
@@ -889,7 +890,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>152565</v>
       </c>
@@ -942,7 +943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>45301</v>
       </c>
@@ -995,7 +996,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>258078</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>17339</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>337600</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>361717</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>420785</v>
       </c>
@@ -1260,7 +1261,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>228395</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>282530</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>116425</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>130159</v>
       </c>
@@ -1472,7 +1473,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>434405</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>399401</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>41687</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>164243</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>106273</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>325760</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>367494</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>141396</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5117</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4575</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>19687</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>447119</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>235305</v>
       </c>
@@ -2161,7 +2162,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>344347</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>407699</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>128078</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>78776</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>230087</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>119027</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>19360</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>387233</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>287346</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>414399</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>348058</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>323393</v>
       </c>
@@ -2797,7 +2798,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>108870</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>380565</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>124351</v>
       </c>
@@ -2956,7 +2957,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>130324</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>300676</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>258266</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>13477</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>474919</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>495101</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>307778</v>
       </c>
@@ -3327,7 +3328,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>365958</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>462623</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>183860</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>321368</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>489365</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>271081</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>451854</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>473089</v>
       </c>
@@ -3751,7 +3752,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>32945</v>
       </c>
@@ -3804,7 +3805,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>295888</v>
       </c>
@@ -3857,7 +3858,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>303283</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>73479</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>428023</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>294240</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>402689</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>33970</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>160196</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>131351</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>192856</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>255217</v>
       </c>
@@ -4387,7 +4388,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>6215</v>
       </c>
@@ -4440,7 +4441,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>55214</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>493956</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>468097</v>
       </c>
@@ -4599,7 +4600,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>44487</v>
       </c>
@@ -4652,7 +4653,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>451022</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>181819</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>195744</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>470733</v>
       </c>
@@ -4864,7 +4865,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>286494</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>108421</v>
       </c>
@@ -4970,7 +4971,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>138499</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>409081</v>
       </c>
@@ -5076,7 +5077,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>140430</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>374154</v>
       </c>
@@ -5182,7 +5183,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>240116</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>445220</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>145495</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>48171</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>54822</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>298458</v>
       </c>
@@ -5500,7 +5501,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>347013</v>
       </c>
@@ -5553,7 +5554,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>233524</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>139964</v>
       </c>
@@ -5659,7 +5660,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>204850</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>250187</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>419201</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>193755</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>138061</v>
       </c>
@@ -5924,7 +5925,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>202493</v>
       </c>
@@ -5977,7 +5978,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>439641</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>335154</v>
       </c>
@@ -6083,7 +6084,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>68285</v>
       </c>
@@ -6136,7 +6137,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:17">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>389012</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>4018</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="110" spans="1:17">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>86641</v>
       </c>
@@ -6295,7 +6296,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>179075</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>252455</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>216116</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>210649</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>138518</v>
       </c>
@@ -6560,7 +6561,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>27845</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>264142</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>350863</v>
       </c>
@@ -6719,7 +6720,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>40906</v>
       </c>
@@ -6772,7 +6773,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>385307</v>
       </c>
@@ -6825,7 +6826,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>149808</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>103039</v>
       </c>
@@ -6931,7 +6932,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>166906</v>
       </c>
@@ -6984,7 +6985,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>156898</v>
       </c>
@@ -7037,7 +7038,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>422125</v>
       </c>
@@ -7090,7 +7091,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:17">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>430238</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="127" spans="1:17">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>397221</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>233156</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>484052</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>108364</v>
       </c>
@@ -7355,7 +7356,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>199723</v>
       </c>
@@ -7408,7 +7409,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>397090</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>101561</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>75697</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>56936</v>
       </c>
@@ -7620,7 +7621,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>119589</v>
       </c>
@@ -7673,7 +7674,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>346581</v>
       </c>
@@ -7726,7 +7727,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>20670</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>10101</v>
       </c>
@@ -7832,7 +7833,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>100553</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="141" spans="1:17">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>193990</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>133228</v>
       </c>
@@ -7991,7 +7992,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>141426</v>
       </c>
@@ -8044,7 +8045,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>271307</v>
       </c>
@@ -8097,7 +8098,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>451325</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>70707</v>
       </c>
@@ -8203,7 +8204,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>215865</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>319750</v>
       </c>
@@ -8309,7 +8310,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>444147</v>
       </c>
@@ -8362,7 +8363,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>250758</v>
       </c>
@@ -8415,7 +8416,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>106752</v>
       </c>
@@ -8468,7 +8469,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>460708</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>481268</v>
       </c>
@@ -8574,7 +8575,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>193615</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>365003</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>273906</v>
       </c>
@@ -8733,7 +8734,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>442214</v>
       </c>
@@ -8786,7 +8787,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>62029</v>
       </c>
@@ -8839,7 +8840,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>492889</v>
       </c>
@@ -8892,7 +8893,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>316420</v>
       </c>
@@ -8945,7 +8946,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>126127</v>
       </c>
@@ -8998,7 +8999,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>20535</v>
       </c>
@@ -9051,7 +9052,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>483314</v>
       </c>
@@ -9104,7 +9105,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>326157</v>
       </c>
@@ -9157,7 +9158,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>398387</v>
       </c>
@@ -9210,7 +9211,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>164581</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>443232</v>
       </c>
@@ -9316,7 +9317,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>333840</v>
       </c>
@@ -9369,7 +9370,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>267445</v>
       </c>
@@ -9422,7 +9423,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>18580</v>
       </c>
@@ -9475,7 +9476,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>399674</v>
       </c>
@@ -9528,7 +9529,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>239870</v>
       </c>
@@ -9581,7 +9582,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>34565</v>
       </c>
@@ -9634,7 +9635,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>316779</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>290335</v>
       </c>
@@ -9740,7 +9741,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>72840</v>
       </c>
@@ -9793,7 +9794,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>41055</v>
       </c>
@@ -9846,7 +9847,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>15544</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>152095</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>240679</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>16903</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>333666</v>
       </c>
@@ -10111,7 +10112,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>362675</v>
       </c>
@@ -10164,7 +10165,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>325076</v>
       </c>
@@ -10217,7 +10218,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>229049</v>
       </c>
@@ -10270,7 +10271,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>412817</v>
       </c>
@@ -10323,7 +10324,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>401307</v>
       </c>
@@ -10376,7 +10377,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>29755</v>
       </c>
@@ -10429,7 +10430,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>487356</v>
       </c>
@@ -10482,7 +10483,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>455328</v>
       </c>
@@ -10535,7 +10536,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>220106</v>
       </c>
@@ -10588,7 +10589,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>311432</v>
       </c>
@@ -10641,7 +10642,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>40563</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>441441</v>
       </c>
@@ -10747,7 +10748,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>400596</v>
       </c>
@@ -10800,7 +10801,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>341805</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>249605</v>
       </c>
@@ -10906,7 +10907,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>94759</v>
       </c>
@@ -10959,7 +10960,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>18061</v>
       </c>
@@ -11012,7 +11013,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>130046</v>
       </c>
@@ -11065,7 +11066,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>249161</v>
       </c>
@@ -11118,7 +11119,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>454012</v>
       </c>
@@ -11171,7 +11172,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>383403</v>
       </c>
@@ -11224,7 +11225,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>73167</v>
       </c>
@@ -11277,7 +11278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>127368</v>
       </c>
@@ -11330,7 +11331,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>208594</v>
       </c>
@@ -11383,7 +11384,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>57241</v>
       </c>
@@ -11436,7 +11437,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>55961</v>
       </c>
@@ -11489,7 +11490,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>166319</v>
       </c>
@@ -11542,7 +11543,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>154099</v>
       </c>
@@ -11595,7 +11596,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>83993</v>
       </c>
@@ -11648,7 +11649,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>292561</v>
       </c>
@@ -11701,7 +11702,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>345473</v>
       </c>
@@ -11754,7 +11755,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>4125</v>
       </c>
@@ -11807,7 +11808,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>382172</v>
       </c>
@@ -11860,7 +11861,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>434429</v>
       </c>
@@ -11913,7 +11914,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>107245</v>
       </c>
@@ -11966,7 +11967,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>300408</v>
       </c>
@@ -12019,7 +12020,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>311594</v>
       </c>
@@ -12072,7 +12073,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>55159</v>
       </c>
@@ -12125,7 +12126,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>381502</v>
       </c>
@@ -12178,7 +12179,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>214175</v>
       </c>
@@ -12231,7 +12232,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>307972</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>134416</v>
       </c>
@@ -12337,7 +12338,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>34200</v>
       </c>
@@ -12390,7 +12391,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>105398</v>
       </c>
@@ -12443,7 +12444,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>186753</v>
       </c>
@@ -12496,7 +12497,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>215084</v>
       </c>
@@ -12549,7 +12550,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>425043</v>
       </c>
@@ -12602,7 +12603,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>366187</v>
       </c>
@@ -12655,7 +12656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>83028</v>
       </c>
@@ -12708,7 +12709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>168299</v>
       </c>
@@ -12761,7 +12762,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>475873</v>
       </c>
@@ -12814,7 +12815,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>56176</v>
       </c>
@@ -12867,7 +12868,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>185771</v>
       </c>
@@ -12920,7 +12921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>186785</v>
       </c>
@@ -12973,7 +12974,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>341297</v>
       </c>
@@ -13026,7 +13027,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>274124</v>
       </c>
@@ -13079,7 +13080,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>335466</v>
       </c>
@@ -13132,7 +13133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>417198</v>
       </c>
@@ -13185,7 +13186,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>94205</v>
       </c>
@@ -13238,7 +13239,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>71326</v>
       </c>
@@ -13291,7 +13292,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>484831</v>
       </c>
@@ -13344,7 +13345,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>317929</v>
       </c>
@@ -13397,7 +13398,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>251331</v>
       </c>
@@ -13450,7 +13451,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>415850</v>
       </c>
@@ -13503,7 +13504,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>426071</v>
       </c>
@@ -13556,7 +13557,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>69516</v>
       </c>
@@ -13609,7 +13610,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>37696</v>
       </c>
@@ -13662,7 +13663,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>90188</v>
       </c>
@@ -13715,7 +13716,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>457497</v>
       </c>
@@ -13768,7 +13769,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>95393</v>
       </c>
@@ -13821,7 +13822,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>254732</v>
       </c>
@@ -13874,7 +13875,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>142614</v>
       </c>
@@ -13927,7 +13928,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>12118</v>
       </c>
@@ -13980,7 +13981,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>133015</v>
       </c>
@@ -14033,7 +14034,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>262887</v>
       </c>
@@ -14086,7 +14087,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>292074</v>
       </c>
@@ -14139,7 +14140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>333496</v>
       </c>
@@ -14192,7 +14193,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>61475</v>
       </c>
@@ -14245,7 +14246,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>21870</v>
       </c>
@@ -14298,7 +14299,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>490111</v>
       </c>
@@ -14351,7 +14352,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>131724</v>
       </c>
@@ -14404,7 +14405,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>461068</v>
       </c>
@@ -14457,7 +14458,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>273442</v>
       </c>
@@ -14510,7 +14511,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>325367</v>
       </c>
@@ -14563,7 +14564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>59873</v>
       </c>
@@ -14616,7 +14617,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>405891</v>
       </c>
@@ -14669,7 +14670,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>311649</v>
       </c>
@@ -14722,7 +14723,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>69057</v>
       </c>
@@ -14775,7 +14776,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>101575</v>
       </c>
@@ -14828,7 +14829,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>1028</v>
       </c>
@@ -14881,7 +14882,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>92366</v>
       </c>
@@ -14934,7 +14935,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>126446</v>
       </c>
@@ -14987,7 +14988,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>321450</v>
       </c>
@@ -15040,7 +15041,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>387545</v>
       </c>
@@ -15093,7 +15094,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>110969</v>
       </c>
@@ -15146,7 +15147,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>266398</v>
       </c>
@@ -15199,7 +15200,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>119280</v>
       </c>
@@ -15252,7 +15253,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>416069</v>
       </c>
@@ -15305,7 +15306,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>328855</v>
       </c>
@@ -15358,7 +15359,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>185670</v>
       </c>
@@ -15411,7 +15412,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>398833</v>
       </c>
@@ -15464,7 +15465,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>90599</v>
       </c>
@@ -15517,7 +15518,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>485140</v>
       </c>
@@ -15570,7 +15571,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>415041</v>
       </c>
@@ -15623,7 +15624,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>11829</v>
       </c>
@@ -15676,7 +15677,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>35537</v>
       </c>
@@ -15729,7 +15730,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="289" spans="1:17">
+    <row r="289" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>50933</v>
       </c>
@@ -15782,7 +15783,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="290" spans="1:17">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>216864</v>
       </c>
@@ -15835,7 +15836,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="291" spans="1:17">
+    <row r="291" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>253844</v>
       </c>
@@ -15888,7 +15889,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="292" spans="1:17">
+    <row r="292" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>231358</v>
       </c>
@@ -15941,7 +15942,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="293" spans="1:17">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>263348</v>
       </c>
@@ -15994,7 +15995,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="294" spans="1:17">
+    <row r="294" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>4439</v>
       </c>
@@ -16047,7 +16048,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="295" spans="1:17">
+    <row r="295" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>63826</v>
       </c>
@@ -16100,7 +16101,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="296" spans="1:17">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>242608</v>
       </c>
@@ -16153,7 +16154,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="297" spans="1:17">
+    <row r="297" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>399292</v>
       </c>
@@ -16206,7 +16207,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="298" spans="1:17">
+    <row r="298" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>492457</v>
       </c>
@@ -16259,7 +16260,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="299" spans="1:17">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>241027</v>
       </c>
@@ -16312,7 +16313,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="300" spans="1:17">
+    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>306265</v>
       </c>
@@ -16365,7 +16366,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="301" spans="1:17">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>113519</v>
       </c>
@@ -16418,7 +16419,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="302" spans="1:17">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>6033</v>
       </c>
@@ -16471,7 +16472,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="303" spans="1:17">
+    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>450598</v>
       </c>
@@ -16524,7 +16525,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="304" spans="1:17">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>468073</v>
       </c>
@@ -16577,7 +16578,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>307262</v>
       </c>
@@ -16630,7 +16631,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>162450</v>
       </c>
@@ -16683,7 +16684,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>462145</v>
       </c>
@@ -16736,7 +16737,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>313320</v>
       </c>
@@ -16789,7 +16790,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>128836</v>
       </c>
@@ -16842,7 +16843,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>436748</v>
       </c>
@@ -16895,7 +16896,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>1615</v>
       </c>
@@ -16948,7 +16949,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>116381</v>
       </c>
@@ -17001,7 +17002,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>81919</v>
       </c>
@@ -17054,7 +17055,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>446969</v>
       </c>
@@ -17107,7 +17108,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>318227</v>
       </c>
@@ -17160,7 +17161,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>118951</v>
       </c>
@@ -17213,7 +17214,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>353922</v>
       </c>
@@ -17266,7 +17267,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>128999</v>
       </c>
@@ -17319,7 +17320,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>4987</v>
       </c>
@@ -17372,7 +17373,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>388557</v>
       </c>
@@ -17425,7 +17426,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>148497</v>
       </c>
@@ -17478,7 +17479,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>313985</v>
       </c>
@@ -17531,7 +17532,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>143930</v>
       </c>
@@ -17584,7 +17585,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>336926</v>
       </c>
@@ -17637,7 +17638,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>276430</v>
       </c>
@@ -17690,7 +17691,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>321347</v>
       </c>
@@ -17743,7 +17744,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>276306</v>
       </c>
@@ -17796,7 +17797,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>22081</v>
       </c>
@@ -17849,7 +17850,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>83690</v>
       </c>
@@ -17902,7 +17903,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>474295</v>
       </c>
@@ -17955,7 +17956,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>276280</v>
       </c>
@@ -18008,7 +18009,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>48849</v>
       </c>
@@ -18061,7 +18062,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>197492</v>
       </c>
@@ -18114,7 +18115,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>371990</v>
       </c>
@@ -18167,7 +18168,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>44240</v>
       </c>
@@ -18220,7 +18221,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>470558</v>
       </c>
@@ -18273,7 +18274,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>92784</v>
       </c>
@@ -18326,7 +18327,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>379080</v>
       </c>
@@ -18379,7 +18380,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>211972</v>
       </c>
@@ -18432,7 +18433,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>241593</v>
       </c>
@@ -18485,7 +18486,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>133415</v>
       </c>
@@ -18538,7 +18539,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>224025</v>
       </c>
@@ -18591,7 +18592,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>301118</v>
       </c>
@@ -18644,7 +18645,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>392549</v>
       </c>
@@ -18697,7 +18698,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>274512</v>
       </c>
@@ -18750,7 +18751,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>75696</v>
       </c>
@@ -18803,7 +18804,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>345546</v>
       </c>
@@ -18856,7 +18857,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>435613</v>
       </c>
@@ -18909,7 +18910,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>95041</v>
       </c>
@@ -18962,7 +18963,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>423124</v>
       </c>
@@ -19015,7 +19016,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>168294</v>
       </c>
@@ -19068,7 +19069,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>162201</v>
       </c>
@@ -19121,7 +19122,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>28524</v>
       </c>
@@ -19174,7 +19175,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>178673</v>
       </c>
@@ -19227,7 +19228,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>62564</v>
       </c>
@@ -19280,7 +19281,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>412610</v>
       </c>
@@ -19333,7 +19334,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>255483</v>
       </c>
@@ -19386,7 +19387,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>413495</v>
       </c>
@@ -19439,7 +19440,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>31541</v>
       </c>
@@ -19492,7 +19493,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>255575</v>
       </c>
@@ -19545,7 +19546,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>150852</v>
       </c>
@@ -19598,7 +19599,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>369070</v>
       </c>
@@ -19651,7 +19652,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>108417</v>
       </c>
@@ -19704,7 +19705,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>27806</v>
       </c>
@@ -19757,7 +19758,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>171865</v>
       </c>
@@ -19810,7 +19811,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>127554</v>
       </c>
@@ -19863,7 +19864,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>110332</v>
       </c>
@@ -19916,7 +19917,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>390895</v>
       </c>
@@ -19969,7 +19970,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>147676</v>
       </c>
@@ -20022,7 +20023,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>119748</v>
       </c>
@@ -20075,7 +20076,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>89422</v>
       </c>
@@ -20128,7 +20129,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>236555</v>
       </c>
@@ -20181,7 +20182,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>445440</v>
       </c>
@@ -20234,7 +20235,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>73885</v>
       </c>
@@ -20287,7 +20288,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>196596</v>
       </c>
@@ -20340,7 +20341,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>229244</v>
       </c>
@@ -20393,7 +20394,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>316180</v>
       </c>
@@ -20446,7 +20447,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>258337</v>
       </c>
@@ -20499,7 +20500,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>403709</v>
       </c>
@@ -20552,7 +20553,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>175325</v>
       </c>
@@ -20605,7 +20606,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>348855</v>
       </c>
@@ -20658,7 +20659,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>467395</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>6222</v>
       </c>
@@ -20764,7 +20765,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>249068</v>
       </c>
@@ -20817,7 +20818,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>234521</v>
       </c>
@@ -20870,7 +20871,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>409951</v>
       </c>
@@ -20923,7 +20924,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>316976</v>
       </c>
@@ -20976,7 +20977,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>275972</v>
       </c>
@@ -21029,7 +21030,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>312678</v>
       </c>
@@ -21082,7 +21083,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A390">
         <v>428528</v>
       </c>
@@ -21135,7 +21136,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A391">
         <v>119491</v>
       </c>
@@ -21188,7 +21189,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A392">
         <v>432675</v>
       </c>
@@ -21241,7 +21242,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A393">
         <v>378453</v>
       </c>
@@ -21294,7 +21295,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A394">
         <v>409919</v>
       </c>
@@ -21347,7 +21348,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A395">
         <v>2989</v>
       </c>
@@ -21400,7 +21401,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A396">
         <v>387757</v>
       </c>
@@ -21453,7 +21454,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A397">
         <v>86149</v>
       </c>
@@ -21506,7 +21507,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A398">
         <v>97586</v>
       </c>
@@ -21559,7 +21560,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A399">
         <v>86993</v>
       </c>
@@ -21612,7 +21613,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A400">
         <v>163760</v>
       </c>
@@ -21665,7 +21666,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A401">
         <v>286538</v>
       </c>
@@ -21718,7 +21719,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A402">
         <v>204896</v>
       </c>
@@ -21771,7 +21772,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A403">
         <v>322761</v>
       </c>
@@ -21824,7 +21825,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A404">
         <v>462198</v>
       </c>
@@ -21877,7 +21878,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A405">
         <v>260109</v>
       </c>
@@ -21930,7 +21931,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A406">
         <v>338783</v>
       </c>
@@ -21983,7 +21984,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A407">
         <v>170069</v>
       </c>
@@ -22036,7 +22037,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A408">
         <v>29369</v>
       </c>
@@ -22089,7 +22090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A409">
         <v>369911</v>
       </c>
@@ -22142,7 +22143,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A410">
         <v>36684</v>
       </c>
@@ -22195,7 +22196,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A411">
         <v>146401</v>
       </c>
@@ -22248,7 +22249,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A412">
         <v>388604</v>
       </c>
@@ -22301,7 +22302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A413">
         <v>364695</v>
       </c>
@@ -22354,7 +22355,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A414">
         <v>53380</v>
       </c>
@@ -22407,7 +22408,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A415">
         <v>320467</v>
       </c>
@@ -22460,7 +22461,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A416">
         <v>417558</v>
       </c>
@@ -22513,7 +22514,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A417">
         <v>38502</v>
       </c>
@@ -22566,7 +22567,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A418">
         <v>307454</v>
       </c>
@@ -22619,7 +22620,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A419">
         <v>117752</v>
       </c>
@@ -22672,7 +22673,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A420">
         <v>356383</v>
       </c>
@@ -22725,7 +22726,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A421">
         <v>431214</v>
       </c>
@@ -22778,7 +22779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A422">
         <v>246120</v>
       </c>
@@ -22831,7 +22832,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A423">
         <v>273015</v>
       </c>
@@ -22884,7 +22885,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A424">
         <v>352358</v>
       </c>
@@ -22937,7 +22938,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A425">
         <v>294536</v>
       </c>
@@ -22990,7 +22991,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A426">
         <v>157760</v>
       </c>
@@ -23043,7 +23044,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A427">
         <v>195946</v>
       </c>
@@ -23096,7 +23097,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A428">
         <v>487288</v>
       </c>
@@ -23149,7 +23150,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A429">
         <v>134955</v>
       </c>
@@ -23202,7 +23203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A430">
         <v>477189</v>
       </c>
@@ -23255,7 +23256,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A431">
         <v>270645</v>
       </c>
@@ -23308,7 +23309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A432">
         <v>184183</v>
       </c>
@@ -23361,7 +23362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A433">
         <v>225746</v>
       </c>
@@ -23414,7 +23415,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A434">
         <v>274143</v>
       </c>
@@ -23467,7 +23468,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A435">
         <v>154972</v>
       </c>
@@ -23520,7 +23521,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A436">
         <v>361843</v>
       </c>
@@ -23573,7 +23574,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A437">
         <v>396377</v>
       </c>
@@ -23626,7 +23627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A438">
         <v>246735</v>
       </c>
@@ -23679,7 +23680,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A439">
         <v>74441</v>
       </c>
@@ -23732,7 +23733,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A440">
         <v>427688</v>
       </c>
@@ -23785,7 +23786,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A441">
         <v>250371</v>
       </c>
@@ -23838,7 +23839,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A442">
         <v>27188</v>
       </c>
@@ -23891,7 +23892,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A443">
         <v>358544</v>
       </c>
@@ -23944,7 +23945,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A444">
         <v>186354</v>
       </c>
@@ -23997,7 +23998,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A445">
         <v>343645</v>
       </c>
@@ -24050,7 +24051,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A446">
         <v>150240</v>
       </c>
@@ -24103,7 +24104,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A447">
         <v>131246</v>
       </c>
@@ -24156,7 +24157,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A448">
         <v>185837</v>
       </c>
@@ -24209,7 +24210,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A449">
         <v>268005</v>
       </c>
@@ -24262,7 +24263,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A450">
         <v>283686</v>
       </c>
@@ -24315,7 +24316,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A451">
         <v>425084</v>
       </c>
@@ -24368,7 +24369,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A452">
         <v>324221</v>
       </c>
@@ -24421,7 +24422,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A453">
         <v>303410</v>
       </c>
@@ -24474,7 +24475,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A454">
         <v>114787</v>
       </c>
@@ -24527,7 +24528,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A455">
         <v>31053</v>
       </c>
@@ -24580,7 +24581,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A456">
         <v>271578</v>
       </c>
@@ -24633,7 +24634,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A457">
         <v>254116</v>
       </c>
@@ -24686,7 +24687,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A458">
         <v>499225</v>
       </c>
@@ -24739,7 +24740,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A459">
         <v>6764</v>
       </c>
@@ -24792,7 +24793,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A460">
         <v>198255</v>
       </c>
@@ -24845,7 +24846,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A461">
         <v>406818</v>
       </c>
@@ -24898,7 +24899,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A462">
         <v>418503</v>
       </c>
@@ -24951,7 +24952,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A463">
         <v>437340</v>
       </c>
@@ -25004,7 +25005,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="464" spans="1:17">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A464">
         <v>91098</v>
       </c>
@@ -25057,7 +25058,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="465" spans="1:17">
+    <row r="465" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A465">
         <v>279863</v>
       </c>
@@ -25110,7 +25111,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="466" spans="1:17">
+    <row r="466" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A466">
         <v>290218</v>
       </c>
@@ -25163,7 +25164,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="467" spans="1:17">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A467">
         <v>150001</v>
       </c>
@@ -25216,7 +25217,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="468" spans="1:17">
+    <row r="468" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A468">
         <v>22744</v>
       </c>
@@ -25269,7 +25270,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="469" spans="1:17">
+    <row r="469" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A469">
         <v>371069</v>
       </c>
@@ -25322,7 +25323,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="470" spans="1:17">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A470">
         <v>404382</v>
       </c>
@@ -25375,7 +25376,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="471" spans="1:17">
+    <row r="471" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A471">
         <v>404247</v>
       </c>
@@ -25428,7 +25429,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="472" spans="1:17">
+    <row r="472" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A472">
         <v>264354</v>
       </c>
@@ -25481,7 +25482,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="473" spans="1:17">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A473">
         <v>315620</v>
       </c>
@@ -25534,7 +25535,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="474" spans="1:17">
+    <row r="474" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A474">
         <v>388037</v>
       </c>
@@ -25587,7 +25588,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="475" spans="1:17">
+    <row r="475" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A475">
         <v>403599</v>
       </c>
@@ -25640,7 +25641,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="476" spans="1:17">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A476">
         <v>271377</v>
       </c>
@@ -25693,7 +25694,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="477" spans="1:17">
+    <row r="477" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A477">
         <v>149933</v>
       </c>
@@ -25746,7 +25747,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="478" spans="1:17">
+    <row r="478" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A478">
         <v>297438</v>
       </c>
@@ -25799,7 +25800,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="479" spans="1:17">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A479">
         <v>145151</v>
       </c>
@@ -25852,7 +25853,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="480" spans="1:17">
+    <row r="480" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A480">
         <v>367446</v>
       </c>
@@ -25905,7 +25906,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="481" spans="1:17">
+    <row r="481" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A481">
         <v>164873</v>
       </c>
@@ -25958,7 +25959,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="482" spans="1:17">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A482">
         <v>81815</v>
       </c>
@@ -26011,7 +26012,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="483" spans="1:17">
+    <row r="483" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A483">
         <v>217741</v>
       </c>
@@ -26064,7 +26065,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="484" spans="1:17">
+    <row r="484" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A484">
         <v>95626</v>
       </c>
@@ -26117,7 +26118,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="485" spans="1:17">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A485">
         <v>16304</v>
       </c>
@@ -26170,7 +26171,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="486" spans="1:17">
+    <row r="486" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A486">
         <v>141569</v>
       </c>
@@ -26223,7 +26224,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="487" spans="1:17">
+    <row r="487" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A487">
         <v>179007</v>
       </c>
@@ -26276,7 +26277,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="488" spans="1:17">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A488">
         <v>497254</v>
       </c>
@@ -26329,7 +26330,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="489" spans="1:17">
+    <row r="489" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A489">
         <v>148028</v>
       </c>
@@ -26382,7 +26383,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="490" spans="1:17">
+    <row r="490" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A490">
         <v>247618</v>
       </c>
@@ -26435,7 +26436,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="491" spans="1:17">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A491">
         <v>123230</v>
       </c>
@@ -26488,7 +26489,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="492" spans="1:17">
+    <row r="492" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A492">
         <v>230801</v>
       </c>
@@ -26541,7 +26542,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="493" spans="1:17">
+    <row r="493" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A493">
         <v>71185</v>
       </c>
@@ -26594,7 +26595,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="494" spans="1:17">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A494">
         <v>336379</v>
       </c>
@@ -26647,7 +26648,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="495" spans="1:17">
+    <row r="495" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A495">
         <v>189548</v>
       </c>
@@ -26700,7 +26701,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="496" spans="1:17">
+    <row r="496" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A496">
         <v>315292</v>
       </c>
@@ -26753,7 +26754,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="497" spans="1:17">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A497">
         <v>148847</v>
       </c>
@@ -26806,7 +26807,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="498" spans="1:17">
+    <row r="498" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A498">
         <v>148465</v>
       </c>
@@ -26859,7 +26860,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="499" spans="1:17">
+    <row r="499" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A499">
         <v>107974</v>
       </c>
@@ -26912,7 +26913,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="500" spans="1:17">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A500">
         <v>8628</v>
       </c>
@@ -26965,7 +26966,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="501" spans="1:17">
+    <row r="501" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A501">
         <v>208010</v>
       </c>
@@ -27018,7 +27019,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="502" spans="1:17">
+    <row r="502" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A502">
         <v>239485</v>
       </c>
@@ -27071,7 +27072,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="503" spans="1:17">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A503">
         <v>437950</v>
       </c>
@@ -27124,7 +27125,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="504" spans="1:17">
+    <row r="504" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A504">
         <v>99538</v>
       </c>
@@ -27177,7 +27178,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="505" spans="1:17">
+    <row r="505" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A505">
         <v>498135</v>
       </c>
@@ -27230,7 +27231,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="506" spans="1:17">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A506">
         <v>165767</v>
       </c>
@@ -27283,7 +27284,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="507" spans="1:17">
+    <row r="507" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A507">
         <v>382245</v>
       </c>
@@ -27336,7 +27337,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="508" spans="1:17">
+    <row r="508" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A508">
         <v>292538</v>
       </c>
@@ -27389,7 +27390,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="509" spans="1:17">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A509">
         <v>415577</v>
       </c>
@@ -27442,7 +27443,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="510" spans="1:17">
+    <row r="510" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A510">
         <v>109099</v>
       </c>
@@ -27495,7 +27496,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="511" spans="1:17">
+    <row r="511" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A511">
         <v>325363</v>
       </c>
@@ -27548,7 +27549,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="512" spans="1:17">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A512">
         <v>262850</v>
       </c>
@@ -27601,7 +27602,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="513" spans="1:17">
+    <row r="513" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A513">
         <v>147509</v>
       </c>
@@ -27654,7 +27655,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="514" spans="1:17">
+    <row r="514" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A514">
         <v>354292</v>
       </c>
@@ -27707,7 +27708,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="515" spans="1:17">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A515">
         <v>372825</v>
       </c>
@@ -27760,7 +27761,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="516" spans="1:17">
+    <row r="516" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A516">
         <v>84610</v>
       </c>
@@ -27813,7 +27814,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="517" spans="1:17">
+    <row r="517" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A517">
         <v>227147</v>
       </c>
@@ -27866,7 +27867,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="518" spans="1:17">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A518">
         <v>272157</v>
       </c>
@@ -27919,7 +27920,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="519" spans="1:17">
+    <row r="519" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A519">
         <v>350560</v>
       </c>
@@ -27972,7 +27973,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="520" spans="1:17">
+    <row r="520" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A520">
         <v>315699</v>
       </c>
@@ -28025,7 +28026,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="521" spans="1:17">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A521">
         <v>133469</v>
       </c>
@@ -28078,7 +28079,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="522" spans="1:17">
+    <row r="522" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A522">
         <v>59030</v>
       </c>
@@ -28131,7 +28132,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="523" spans="1:17">
+    <row r="523" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A523">
         <v>357589</v>
       </c>
@@ -28184,7 +28185,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="524" spans="1:17">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A524">
         <v>56923</v>
       </c>
@@ -28237,7 +28238,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="525" spans="1:17">
+    <row r="525" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A525">
         <v>357342</v>
       </c>
@@ -28290,7 +28291,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="526" spans="1:17">
+    <row r="526" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A526">
         <v>218132</v>
       </c>
@@ -28343,7 +28344,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="527" spans="1:17">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A527">
         <v>447653</v>
       </c>
@@ -28396,7 +28397,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="528" spans="1:17">
+    <row r="528" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A528">
         <v>143793</v>
       </c>
@@ -28449,7 +28450,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="529" spans="1:17">
+    <row r="529" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A529">
         <v>52055</v>
       </c>
@@ -28502,7 +28503,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="530" spans="1:17">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A530">
         <v>350360</v>
       </c>
@@ -28555,7 +28556,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="531" spans="1:17">
+    <row r="531" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A531">
         <v>53469</v>
       </c>
@@ -28608,7 +28609,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="532" spans="1:17">
+    <row r="532" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A532">
         <v>292758</v>
       </c>
@@ -28661,7 +28662,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="533" spans="1:17">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A533">
         <v>330154</v>
       </c>
@@ -28714,7 +28715,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="534" spans="1:17">
+    <row r="534" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A534">
         <v>409797</v>
       </c>
@@ -28767,7 +28768,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="535" spans="1:17">
+    <row r="535" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A535">
         <v>99514</v>
       </c>
@@ -28820,7 +28821,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="536" spans="1:17">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A536">
         <v>404693</v>
       </c>
@@ -28873,7 +28874,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="537" spans="1:17">
+    <row r="537" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A537">
         <v>293962</v>
       </c>
@@ -28926,7 +28927,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="538" spans="1:17">
+    <row r="538" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A538">
         <v>134103</v>
       </c>
@@ -28979,7 +28980,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="539" spans="1:17">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A539">
         <v>315337</v>
       </c>
@@ -29032,7 +29033,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="540" spans="1:17">
+    <row r="540" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A540">
         <v>232788</v>
       </c>
@@ -29085,7 +29086,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="541" spans="1:17">
+    <row r="541" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A541">
         <v>443090</v>
       </c>
@@ -29138,7 +29139,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="542" spans="1:17">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A542">
         <v>214353</v>
       </c>
@@ -29191,7 +29192,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="543" spans="1:17">
+    <row r="543" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A543">
         <v>297749</v>
       </c>
@@ -29244,7 +29245,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="544" spans="1:17">
+    <row r="544" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A544">
         <v>367993</v>
       </c>
@@ -29297,7 +29298,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="545" spans="1:17">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A545">
         <v>69859</v>
       </c>
@@ -29350,7 +29351,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="546" spans="1:17">
+    <row r="546" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A546">
         <v>414872</v>
       </c>
@@ -29403,7 +29404,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="547" spans="1:17">
+    <row r="547" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A547">
         <v>260819</v>
       </c>
@@ -29456,7 +29457,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="548" spans="1:17">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A548">
         <v>265608</v>
       </c>
@@ -29509,7 +29510,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="549" spans="1:17">
+    <row r="549" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A549">
         <v>228595</v>
       </c>
@@ -29562,7 +29563,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="550" spans="1:17">
+    <row r="550" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A550">
         <v>448648</v>
       </c>
@@ -29615,7 +29616,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="551" spans="1:17">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A551">
         <v>240649</v>
       </c>
@@ -29668,7 +29669,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="552" spans="1:17">
+    <row r="552" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A552">
         <v>102227</v>
       </c>
@@ -29721,7 +29722,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="553" spans="1:17">
+    <row r="553" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A553">
         <v>408550</v>
       </c>
@@ -29774,7 +29775,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="554" spans="1:17">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A554">
         <v>441426</v>
       </c>
@@ -29827,7 +29828,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="555" spans="1:17">
+    <row r="555" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A555">
         <v>17841</v>
       </c>
@@ -29880,7 +29881,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="556" spans="1:17">
+    <row r="556" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A556">
         <v>251077</v>
       </c>
@@ -29933,7 +29934,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="557" spans="1:17">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A557">
         <v>36655</v>
       </c>
@@ -29986,7 +29987,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="558" spans="1:17">
+    <row r="558" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A558">
         <v>26487</v>
       </c>
@@ -30039,7 +30040,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="559" spans="1:17">
+    <row r="559" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A559">
         <v>308329</v>
       </c>
@@ -30092,7 +30093,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="560" spans="1:17">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A560">
         <v>177024</v>
       </c>
@@ -30145,7 +30146,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="561" spans="1:17">
+    <row r="561" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A561">
         <v>249402</v>
       </c>
@@ -30198,7 +30199,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="562" spans="1:17">
+    <row r="562" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A562">
         <v>278693</v>
       </c>
@@ -30251,7 +30252,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="563" spans="1:17">
+    <row r="563" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A563">
         <v>351236</v>
       </c>
@@ -30304,7 +30305,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="564" spans="1:17">
+    <row r="564" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A564">
         <v>129971</v>
       </c>
@@ -30357,7 +30358,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="565" spans="1:17">
+    <row r="565" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A565">
         <v>45357</v>
       </c>
@@ -30410,7 +30411,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="566" spans="1:17">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A566">
         <v>243924</v>
       </c>
@@ -30463,7 +30464,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="567" spans="1:17">
+    <row r="567" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A567">
         <v>133019</v>
       </c>
@@ -30516,7 +30517,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="568" spans="1:17">
+    <row r="568" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A568">
         <v>30224</v>
       </c>
@@ -30569,7 +30570,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="569" spans="1:17">
+    <row r="569" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A569">
         <v>94317</v>
       </c>
@@ -30622,7 +30623,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="570" spans="1:17">
+    <row r="570" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A570">
         <v>225614</v>
       </c>
@@ -30675,7 +30676,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="571" spans="1:17">
+    <row r="571" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A571">
         <v>57637</v>
       </c>
@@ -30728,7 +30729,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="572" spans="1:17">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A572">
         <v>211812</v>
       </c>
@@ -30781,7 +30782,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="573" spans="1:17">
+    <row r="573" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A573">
         <v>162883</v>
       </c>
@@ -30834,7 +30835,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="574" spans="1:17">
+    <row r="574" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A574">
         <v>212601</v>
       </c>
@@ -30887,7 +30888,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="575" spans="1:17">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A575">
         <v>73497</v>
       </c>
@@ -30940,7 +30941,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="576" spans="1:17">
+    <row r="576" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A576">
         <v>97958</v>
       </c>
@@ -30993,7 +30994,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="577" spans="1:17">
+    <row r="577" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A577">
         <v>413163</v>
       </c>
@@ -31046,7 +31047,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="578" spans="1:17">
+    <row r="578" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A578">
         <v>407238</v>
       </c>
@@ -31099,7 +31100,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="579" spans="1:17">
+    <row r="579" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A579">
         <v>363652</v>
       </c>
@@ -31152,7 +31153,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="580" spans="1:17">
+    <row r="580" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A580">
         <v>302337</v>
       </c>
@@ -31205,7 +31206,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="581" spans="1:17">
+    <row r="581" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A581">
         <v>438353</v>
       </c>
@@ -31258,7 +31259,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="582" spans="1:17">
+    <row r="582" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A582">
         <v>106741</v>
       </c>
@@ -31311,7 +31312,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="583" spans="1:17">
+    <row r="583" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A583">
         <v>226544</v>
       </c>
@@ -31364,7 +31365,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="584" spans="1:17">
+    <row r="584" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A584">
         <v>442192</v>
       </c>
@@ -31417,7 +31418,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="585" spans="1:17">
+    <row r="585" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A585">
         <v>93518</v>
       </c>
@@ -31470,7 +31471,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="586" spans="1:17">
+    <row r="586" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A586">
         <v>25423</v>
       </c>
@@ -31523,7 +31524,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="587" spans="1:17">
+    <row r="587" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A587">
         <v>198051</v>
       </c>
@@ -31576,7 +31577,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="588" spans="1:17">
+    <row r="588" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A588">
         <v>486292</v>
       </c>
@@ -31629,7 +31630,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="589" spans="1:17">
+    <row r="589" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A589">
         <v>9604</v>
       </c>
@@ -31682,7 +31683,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="590" spans="1:17">
+    <row r="590" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A590">
         <v>497645</v>
       </c>
@@ -31735,7 +31736,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="591" spans="1:17">
+    <row r="591" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A591">
         <v>372446</v>
       </c>
@@ -31788,7 +31789,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="592" spans="1:17">
+    <row r="592" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A592">
         <v>80196</v>
       </c>
@@ -31841,7 +31842,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="593" spans="1:17">
+    <row r="593" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A593">
         <v>106256</v>
       </c>
@@ -31894,7 +31895,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="594" spans="1:17">
+    <row r="594" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A594">
         <v>400164</v>
       </c>
@@ -31947,7 +31948,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="595" spans="1:17">
+    <row r="595" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A595">
         <v>363506</v>
       </c>
@@ -32000,7 +32001,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="596" spans="1:17">
+    <row r="596" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A596">
         <v>95050</v>
       </c>
@@ -32053,7 +32054,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="597" spans="1:17">
+    <row r="597" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A597">
         <v>346537</v>
       </c>
@@ -32106,7 +32107,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="598" spans="1:17">
+    <row r="598" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A598">
         <v>459037</v>
       </c>
@@ -32159,7 +32160,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="599" spans="1:17">
+    <row r="599" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A599">
         <v>408725</v>
       </c>
@@ -32212,7 +32213,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="600" spans="1:17">
+    <row r="600" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A600">
         <v>303997</v>
       </c>
@@ -32265,7 +32266,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="601" spans="1:17">
+    <row r="601" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A601">
         <v>155088</v>
       </c>
@@ -32318,7 +32319,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="602" spans="1:17">
+    <row r="602" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A602">
         <v>427417</v>
       </c>
@@ -32371,7 +32372,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="603" spans="1:17">
+    <row r="603" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A603">
         <v>367559</v>
       </c>
@@ -32424,7 +32425,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="604" spans="1:17">
+    <row r="604" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A604">
         <v>199567</v>
       </c>
@@ -32477,7 +32478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="605" spans="1:17">
+    <row r="605" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A605">
         <v>42929</v>
       </c>
@@ -32530,7 +32531,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="606" spans="1:17">
+    <row r="606" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A606">
         <v>19532</v>
       </c>
@@ -32583,7 +32584,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="607" spans="1:17">
+    <row r="607" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A607">
         <v>364541</v>
       </c>
@@ -32636,7 +32637,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="608" spans="1:17">
+    <row r="608" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A608">
         <v>203788</v>
       </c>
@@ -32689,7 +32690,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="609" spans="1:17">
+    <row r="609" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A609">
         <v>66250</v>
       </c>
@@ -32742,7 +32743,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="610" spans="1:17">
+    <row r="610" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A610">
         <v>335615</v>
       </c>
@@ -32795,7 +32796,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="611" spans="1:17">
+    <row r="611" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A611">
         <v>251778</v>
       </c>
@@ -32848,7 +32849,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="612" spans="1:17">
+    <row r="612" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A612">
         <v>443133</v>
       </c>
@@ -32901,7 +32902,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="613" spans="1:17">
+    <row r="613" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A613">
         <v>201299</v>
       </c>
@@ -32954,7 +32955,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="614" spans="1:17">
+    <row r="614" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A614">
         <v>458837</v>
       </c>
@@ -33007,7 +33008,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="615" spans="1:17">
+    <row r="615" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A615">
         <v>338436</v>
       </c>
@@ -33060,7 +33061,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="616" spans="1:17">
+    <row r="616" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A616">
         <v>187739</v>
       </c>
@@ -33113,7 +33114,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="617" spans="1:17">
+    <row r="617" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A617">
         <v>378655</v>
       </c>
@@ -33166,7 +33167,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="618" spans="1:17">
+    <row r="618" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A618">
         <v>402411</v>
       </c>
@@ -33219,7 +33220,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="619" spans="1:17">
+    <row r="619" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A619">
         <v>82524</v>
       </c>
@@ -33272,7 +33273,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="620" spans="1:17">
+    <row r="620" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A620">
         <v>242296</v>
       </c>
@@ -33325,7 +33326,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="621" spans="1:17">
+    <row r="621" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A621">
         <v>415014</v>
       </c>
@@ -33378,7 +33379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="622" spans="1:17">
+    <row r="622" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A622">
         <v>111981</v>
       </c>
@@ -33431,7 +33432,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="623" spans="1:17">
+    <row r="623" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A623">
         <v>325121</v>
       </c>
@@ -33484,7 +33485,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="624" spans="1:17">
+    <row r="624" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A624">
         <v>479408</v>
       </c>
@@ -33537,7 +33538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="625" spans="1:17">
+    <row r="625" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A625">
         <v>14602</v>
       </c>
@@ -33590,7 +33591,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="626" spans="1:17">
+    <row r="626" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A626">
         <v>450637</v>
       </c>
@@ -33643,7 +33644,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="627" spans="1:17">
+    <row r="627" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A627">
         <v>418652</v>
       </c>
@@ -33696,7 +33697,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="628" spans="1:17">
+    <row r="628" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A628">
         <v>300023</v>
       </c>
@@ -33749,7 +33750,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="629" spans="1:17">
+    <row r="629" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A629">
         <v>271067</v>
       </c>
@@ -33802,7 +33803,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="630" spans="1:17">
+    <row r="630" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A630">
         <v>103520</v>
       </c>
@@ -33855,7 +33856,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="631" spans="1:17">
+    <row r="631" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A631">
         <v>381224</v>
       </c>
@@ -33908,7 +33909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="632" spans="1:17">
+    <row r="632" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A632">
         <v>282606</v>
       </c>
@@ -33961,7 +33962,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="633" spans="1:17">
+    <row r="633" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A633">
         <v>201757</v>
       </c>
@@ -34014,7 +34015,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="634" spans="1:17">
+    <row r="634" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A634">
         <v>107743</v>
       </c>
@@ -34067,7 +34068,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="635" spans="1:17">
+    <row r="635" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A635">
         <v>216104</v>
       </c>
@@ -34120,7 +34121,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="636" spans="1:17">
+    <row r="636" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A636">
         <v>102204</v>
       </c>
@@ -34173,7 +34174,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="637" spans="1:17">
+    <row r="637" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A637">
         <v>372449</v>
       </c>
@@ -34226,7 +34227,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="638" spans="1:17">
+    <row r="638" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A638">
         <v>54600</v>
       </c>
@@ -34279,7 +34280,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="639" spans="1:17">
+    <row r="639" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A639">
         <v>84700</v>
       </c>
@@ -34332,7 +34333,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="640" spans="1:17">
+    <row r="640" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A640">
         <v>432326</v>
       </c>
@@ -34385,7 +34386,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="641" spans="1:17">
+    <row r="641" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A641">
         <v>41800</v>
       </c>
@@ -34438,7 +34439,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="642" spans="1:17">
+    <row r="642" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A642">
         <v>91944</v>
       </c>
@@ -34491,7 +34492,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="643" spans="1:17">
+    <row r="643" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A643">
         <v>478440</v>
       </c>
@@ -34544,7 +34545,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="644" spans="1:17">
+    <row r="644" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A644">
         <v>326037</v>
       </c>
@@ -34597,7 +34598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="645" spans="1:17">
+    <row r="645" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A645">
         <v>126443</v>
       </c>
@@ -34650,7 +34651,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="646" spans="1:17">
+    <row r="646" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A646">
         <v>466514</v>
       </c>
@@ -34703,7 +34704,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="647" spans="1:17">
+    <row r="647" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A647">
         <v>209456</v>
       </c>
@@ -34756,7 +34757,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="648" spans="1:17">
+    <row r="648" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A648">
         <v>385195</v>
       </c>
@@ -34809,7 +34810,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="649" spans="1:17">
+    <row r="649" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A649">
         <v>278714</v>
       </c>
@@ -34862,7 +34863,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="650" spans="1:17">
+    <row r="650" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A650">
         <v>499965</v>
       </c>
@@ -34915,7 +34916,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="651" spans="1:17">
+    <row r="651" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A651">
         <v>129639</v>
       </c>
@@ -34968,7 +34969,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="652" spans="1:17">
+    <row r="652" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A652">
         <v>417838</v>
       </c>
@@ -35021,7 +35022,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="653" spans="1:17">
+    <row r="653" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A653">
         <v>197807</v>
       </c>
@@ -35074,7 +35075,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="654" spans="1:17">
+    <row r="654" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A654">
         <v>228795</v>
       </c>
@@ -35127,7 +35128,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="655" spans="1:17">
+    <row r="655" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A655">
         <v>404845</v>
       </c>
@@ -35180,7 +35181,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="656" spans="1:17">
+    <row r="656" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A656">
         <v>384184</v>
       </c>
@@ -35233,7 +35234,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="657" spans="1:17">
+    <row r="657" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A657">
         <v>188875</v>
       </c>
@@ -35286,7 +35287,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="658" spans="1:17">
+    <row r="658" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A658">
         <v>402076</v>
       </c>
@@ -35339,7 +35340,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="659" spans="1:17">
+    <row r="659" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A659">
         <v>137880</v>
       </c>
@@ -35392,7 +35393,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="660" spans="1:17">
+    <row r="660" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A660">
         <v>163744</v>
       </c>
@@ -35445,7 +35446,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="661" spans="1:17">
+    <row r="661" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A661">
         <v>91620</v>
       </c>
@@ -35498,7 +35499,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="662" spans="1:17">
+    <row r="662" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A662">
         <v>288250</v>
       </c>
@@ -35551,7 +35552,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="663" spans="1:17">
+    <row r="663" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A663">
         <v>237977</v>
       </c>
@@ -35604,7 +35605,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="664" spans="1:17">
+    <row r="664" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A664">
         <v>311023</v>
       </c>
@@ -35657,7 +35658,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="665" spans="1:17">
+    <row r="665" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A665">
         <v>42509</v>
       </c>
@@ -35710,7 +35711,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="666" spans="1:17">
+    <row r="666" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A666">
         <v>417956</v>
       </c>
@@ -35763,7 +35764,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="667" spans="1:17">
+    <row r="667" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A667">
         <v>364851</v>
       </c>
@@ -35816,7 +35817,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="668" spans="1:17">
+    <row r="668" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A668">
         <v>107196</v>
       </c>
@@ -35869,7 +35870,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="669" spans="1:17">
+    <row r="669" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A669">
         <v>300734</v>
       </c>
@@ -35922,7 +35923,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="670" spans="1:17">
+    <row r="670" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A670">
         <v>81874</v>
       </c>
@@ -35975,7 +35976,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="671" spans="1:17">
+    <row r="671" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A671">
         <v>107602</v>
       </c>
@@ -36028,7 +36029,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="672" spans="1:17">
+    <row r="672" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A672">
         <v>335980</v>
       </c>
@@ -36081,7 +36082,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="673" spans="1:17">
+    <row r="673" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A673">
         <v>457056</v>
       </c>
@@ -36134,7 +36135,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="674" spans="1:17">
+    <row r="674" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A674">
         <v>325390</v>
       </c>
@@ -36187,7 +36188,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="675" spans="1:17">
+    <row r="675" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A675">
         <v>124499</v>
       </c>
@@ -36240,7 +36241,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="676" spans="1:17">
+    <row r="676" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A676">
         <v>215284</v>
       </c>
@@ -36293,7 +36294,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="677" spans="1:17">
+    <row r="677" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A677">
         <v>52955</v>
       </c>
@@ -36346,7 +36347,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="678" spans="1:17">
+    <row r="678" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A678">
         <v>234188</v>
       </c>
@@ -36399,7 +36400,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="679" spans="1:17">
+    <row r="679" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A679">
         <v>33996</v>
       </c>
@@ -36452,7 +36453,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="680" spans="1:17">
+    <row r="680" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A680">
         <v>465732</v>
       </c>
@@ -36505,7 +36506,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="681" spans="1:17">
+    <row r="681" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A681">
         <v>262350</v>
       </c>
@@ -36558,7 +36559,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="682" spans="1:17">
+    <row r="682" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A682">
         <v>89824</v>
       </c>
@@ -36611,7 +36612,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="683" spans="1:17">
+    <row r="683" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A683">
         <v>296602</v>
       </c>
@@ -36664,7 +36665,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="684" spans="1:17">
+    <row r="684" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A684">
         <v>303915</v>
       </c>
@@ -36717,7 +36718,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="685" spans="1:17">
+    <row r="685" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A685">
         <v>274013</v>
       </c>
@@ -36770,7 +36771,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="686" spans="1:17">
+    <row r="686" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A686">
         <v>167113</v>
       </c>
@@ -36823,7 +36824,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="687" spans="1:17">
+    <row r="687" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A687">
         <v>214193</v>
       </c>
@@ -36876,7 +36877,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="688" spans="1:17">
+    <row r="688" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A688">
         <v>248390</v>
       </c>
@@ -36929,7 +36930,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="689" spans="1:17">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A689">
         <v>324126</v>
       </c>
@@ -36982,7 +36983,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="690" spans="1:17">
+    <row r="690" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A690">
         <v>84153</v>
       </c>
@@ -37035,7 +37036,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="691" spans="1:17">
+    <row r="691" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A691">
         <v>43203</v>
       </c>
@@ -37088,7 +37089,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="692" spans="1:17">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A692">
         <v>474392</v>
       </c>
@@ -37141,7 +37142,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="693" spans="1:17">
+    <row r="693" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A693">
         <v>332424</v>
       </c>
@@ -37194,7 +37195,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="694" spans="1:17">
+    <row r="694" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A694">
         <v>484973</v>
       </c>
@@ -37247,7 +37248,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="695" spans="1:17">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A695">
         <v>408905</v>
       </c>
@@ -37300,7 +37301,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="696" spans="1:17">
+    <row r="696" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A696">
         <v>139657</v>
       </c>
@@ -37353,7 +37354,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="697" spans="1:17">
+    <row r="697" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A697">
         <v>375150</v>
       </c>
@@ -37406,7 +37407,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="698" spans="1:17">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A698">
         <v>197622</v>
       </c>
@@ -37459,7 +37460,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="699" spans="1:17">
+    <row r="699" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A699">
         <v>30254</v>
       </c>
@@ -37512,7 +37513,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="700" spans="1:17">
+    <row r="700" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A700">
         <v>95512</v>
       </c>
@@ -37565,7 +37566,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="701" spans="1:17">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A701">
         <v>46830</v>
       </c>
@@ -37618,7 +37619,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="702" spans="1:17">
+    <row r="702" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A702">
         <v>280498</v>
       </c>
@@ -37671,7 +37672,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="703" spans="1:17">
+    <row r="703" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A703">
         <v>382526</v>
       </c>
@@ -37724,7 +37725,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="704" spans="1:17">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A704">
         <v>77252</v>
       </c>
@@ -37777,7 +37778,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="705" spans="1:17">
+    <row r="705" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A705">
         <v>212984</v>
       </c>
@@ -37830,7 +37831,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="706" spans="1:17">
+    <row r="706" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A706">
         <v>161881</v>
       </c>
@@ -37883,7 +37884,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="707" spans="1:17">
+    <row r="707" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A707">
         <v>327144</v>
       </c>
@@ -37936,7 +37937,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="708" spans="1:17">
+    <row r="708" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A708">
         <v>73625</v>
       </c>
@@ -37989,7 +37990,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="709" spans="1:17">
+    <row r="709" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A709">
         <v>154016</v>
       </c>
@@ -38042,7 +38043,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="710" spans="1:17">
+    <row r="710" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A710">
         <v>489056</v>
       </c>
@@ -38095,7 +38096,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="711" spans="1:17">
+    <row r="711" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A711">
         <v>350036</v>
       </c>
@@ -38148,7 +38149,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="712" spans="1:17">
+    <row r="712" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A712">
         <v>407896</v>
       </c>
@@ -38201,7 +38202,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="713" spans="1:17">
+    <row r="713" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A713">
         <v>285035</v>
       </c>
@@ -38254,7 +38255,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="714" spans="1:17">
+    <row r="714" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A714">
         <v>192658</v>
       </c>
@@ -38307,7 +38308,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="715" spans="1:17">
+    <row r="715" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A715">
         <v>482325</v>
       </c>
@@ -38360,7 +38361,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="716" spans="1:17">
+    <row r="716" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A716">
         <v>13106</v>
       </c>
@@ -38413,7 +38414,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="717" spans="1:17">
+    <row r="717" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A717">
         <v>470916</v>
       </c>
@@ -38466,7 +38467,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="718" spans="1:17">
+    <row r="718" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A718">
         <v>185166</v>
       </c>
@@ -38519,7 +38520,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="719" spans="1:17">
+    <row r="719" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A719">
         <v>309172</v>
       </c>
@@ -38572,7 +38573,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="720" spans="1:17">
+    <row r="720" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A720">
         <v>429424</v>
       </c>
@@ -38625,7 +38626,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="721" spans="1:17">
+    <row r="721" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A721">
         <v>41583</v>
       </c>
@@ -38678,7 +38679,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="722" spans="1:17">
+    <row r="722" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A722">
         <v>48282</v>
       </c>
@@ -38731,7 +38732,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="723" spans="1:17">
+    <row r="723" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A723">
         <v>297346</v>
       </c>
@@ -38784,7 +38785,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="724" spans="1:17">
+    <row r="724" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A724">
         <v>252913</v>
       </c>
@@ -38837,7 +38838,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="725" spans="1:17">
+    <row r="725" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A725">
         <v>427191</v>
       </c>
@@ -38890,7 +38891,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="726" spans="1:17">
+    <row r="726" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A726">
         <v>34028</v>
       </c>
@@ -38943,7 +38944,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="727" spans="1:17">
+    <row r="727" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A727">
         <v>436558</v>
       </c>
@@ -38996,7 +38997,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="728" spans="1:17">
+    <row r="728" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A728">
         <v>15107</v>
       </c>
@@ -39049,7 +39050,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="729" spans="1:17">
+    <row r="729" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A729">
         <v>165034</v>
       </c>
@@ -39102,7 +39103,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="730" spans="1:17">
+    <row r="730" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A730">
         <v>452544</v>
       </c>
@@ -39155,7 +39156,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="731" spans="1:17">
+    <row r="731" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A731">
         <v>300373</v>
       </c>
@@ -39208,7 +39209,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="732" spans="1:17">
+    <row r="732" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A732">
         <v>266595</v>
       </c>
@@ -39261,7 +39262,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="733" spans="1:17">
+    <row r="733" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A733">
         <v>139826</v>
       </c>
@@ -39314,7 +39315,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="734" spans="1:17">
+    <row r="734" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A734">
         <v>198770</v>
       </c>
@@ -39367,7 +39368,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="735" spans="1:17">
+    <row r="735" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A735">
         <v>378164</v>
       </c>
@@ -39420,7 +39421,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="736" spans="1:17">
+    <row r="736" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A736">
         <v>75765</v>
       </c>
@@ -39473,7 +39474,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="737" spans="1:17">
+    <row r="737" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A737">
         <v>232221</v>
       </c>
@@ -39526,7 +39527,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="738" spans="1:17">
+    <row r="738" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A738">
         <v>360160</v>
       </c>
@@ -39579,7 +39580,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="739" spans="1:17">
+    <row r="739" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A739">
         <v>357152</v>
       </c>
@@ -39632,7 +39633,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="740" spans="1:17">
+    <row r="740" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A740">
         <v>286311</v>
       </c>
@@ -39685,7 +39686,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="741" spans="1:17">
+    <row r="741" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A741">
         <v>104149</v>
       </c>
@@ -39738,7 +39739,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="742" spans="1:17">
+    <row r="742" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A742">
         <v>250619</v>
       </c>
@@ -39791,7 +39792,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="743" spans="1:17">
+    <row r="743" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A743">
         <v>161163</v>
       </c>
@@ -39844,7 +39845,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="744" spans="1:17">
+    <row r="744" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A744">
         <v>25892</v>
       </c>
@@ -39897,7 +39898,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="745" spans="1:17">
+    <row r="745" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A745">
         <v>19586</v>
       </c>
@@ -39950,7 +39951,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="746" spans="1:17">
+    <row r="746" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A746">
         <v>344080</v>
       </c>
@@ -40003,7 +40004,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="747" spans="1:17">
+    <row r="747" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A747">
         <v>376487</v>
       </c>
@@ -40056,7 +40057,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="748" spans="1:17">
+    <row r="748" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A748">
         <v>202861</v>
       </c>
@@ -40109,7 +40110,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="749" spans="1:17">
+    <row r="749" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A749">
         <v>446456</v>
       </c>
@@ -40162,7 +40163,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="750" spans="1:17">
+    <row r="750" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A750">
         <v>476786</v>
       </c>
@@ -40215,7 +40216,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="751" spans="1:17">
+    <row r="751" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A751">
         <v>178841</v>
       </c>
@@ -40268,7 +40269,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="752" spans="1:17">
+    <row r="752" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A752">
         <v>345872</v>
       </c>
@@ -40321,7 +40322,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="753" spans="1:17">
+    <row r="753" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A753">
         <v>476466</v>
       </c>
@@ -40374,7 +40375,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="754" spans="1:17">
+    <row r="754" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A754">
         <v>301110</v>
       </c>
@@ -40427,7 +40428,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="755" spans="1:17">
+    <row r="755" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A755">
         <v>195021</v>
       </c>
@@ -40480,7 +40481,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="756" spans="1:17">
+    <row r="756" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A756">
         <v>53496</v>
       </c>
@@ -40533,7 +40534,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="757" spans="1:17">
+    <row r="757" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A757">
         <v>412405</v>
       </c>
@@ -40586,7 +40587,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="758" spans="1:17">
+    <row r="758" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A758">
         <v>431822</v>
       </c>
@@ -40639,7 +40640,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="759" spans="1:17">
+    <row r="759" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A759">
         <v>106928</v>
       </c>
@@ -40692,7 +40693,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="760" spans="1:17">
+    <row r="760" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A760">
         <v>359195</v>
       </c>
@@ -40745,7 +40746,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="761" spans="1:17">
+    <row r="761" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A761">
         <v>370544</v>
       </c>
@@ -40798,7 +40799,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="762" spans="1:17">
+    <row r="762" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A762">
         <v>396564</v>
       </c>
@@ -40851,7 +40852,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="763" spans="1:17">
+    <row r="763" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A763">
         <v>343501</v>
       </c>
@@ -40904,7 +40905,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="764" spans="1:17">
+    <row r="764" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A764">
         <v>401942</v>
       </c>
@@ -40957,7 +40958,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="765" spans="1:17">
+    <row r="765" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A765">
         <v>170486</v>
       </c>
@@ -41010,7 +41011,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="766" spans="1:17">
+    <row r="766" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A766">
         <v>398374</v>
       </c>
@@ -41063,7 +41064,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="767" spans="1:17">
+    <row r="767" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A767">
         <v>333800</v>
       </c>
@@ -41116,7 +41117,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="768" spans="1:17">
+    <row r="768" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A768">
         <v>184579</v>
       </c>
@@ -41169,7 +41170,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="769" spans="1:17">
+    <row r="769" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A769">
         <v>393424</v>
       </c>
@@ -41222,7 +41223,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="770" spans="1:17">
+    <row r="770" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A770">
         <v>489694</v>
       </c>
@@ -41275,7 +41276,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="771" spans="1:17">
+    <row r="771" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A771">
         <v>62054</v>
       </c>
@@ -41328,7 +41329,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="772" spans="1:17">
+    <row r="772" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A772">
         <v>180763</v>
       </c>
@@ -41381,7 +41382,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="773" spans="1:17">
+    <row r="773" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A773">
         <v>39432</v>
       </c>
@@ -41434,7 +41435,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="774" spans="1:17">
+    <row r="774" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A774">
         <v>308268</v>
       </c>
@@ -41487,7 +41488,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="775" spans="1:17">
+    <row r="775" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A775">
         <v>5513</v>
       </c>
@@ -41540,7 +41541,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="776" spans="1:17">
+    <row r="776" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A776">
         <v>15799</v>
       </c>
@@ -41593,7 +41594,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="777" spans="1:17">
+    <row r="777" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A777">
         <v>216466</v>
       </c>
@@ -41646,7 +41647,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="778" spans="1:17">
+    <row r="778" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A778">
         <v>362066</v>
       </c>
@@ -41699,7 +41700,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="779" spans="1:17">
+    <row r="779" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A779">
         <v>125469</v>
       </c>
@@ -41752,7 +41753,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="780" spans="1:17">
+    <row r="780" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A780">
         <v>449632</v>
       </c>
@@ -41805,7 +41806,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="781" spans="1:17">
+    <row r="781" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A781">
         <v>320162</v>
       </c>
@@ -41858,7 +41859,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="782" spans="1:17">
+    <row r="782" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A782">
         <v>299543</v>
       </c>
@@ -41911,7 +41912,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="783" spans="1:17">
+    <row r="783" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A783">
         <v>384803</v>
       </c>
@@ -41964,7 +41965,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="784" spans="1:17">
+    <row r="784" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A784">
         <v>364723</v>
       </c>
@@ -42017,7 +42018,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="785" spans="1:17">
+    <row r="785" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A785">
         <v>192330</v>
       </c>
@@ -42070,7 +42071,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="786" spans="1:17">
+    <row r="786" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A786">
         <v>188779</v>
       </c>
@@ -42123,7 +42124,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="787" spans="1:17">
+    <row r="787" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A787">
         <v>353363</v>
       </c>
@@ -42176,7 +42177,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="788" spans="1:17">
+    <row r="788" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A788">
         <v>275312</v>
       </c>
@@ -42229,7 +42230,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="789" spans="1:17">
+    <row r="789" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A789">
         <v>355781</v>
       </c>
@@ -42282,7 +42283,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="790" spans="1:17">
+    <row r="790" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A790">
         <v>122435</v>
       </c>
@@ -42335,7 +42336,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="791" spans="1:17">
+    <row r="791" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A791">
         <v>377546</v>
       </c>
@@ -42388,7 +42389,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="792" spans="1:17">
+    <row r="792" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A792">
         <v>430660</v>
       </c>
@@ -42441,7 +42442,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="793" spans="1:17">
+    <row r="793" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A793">
         <v>243890</v>
       </c>
@@ -42494,7 +42495,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="794" spans="1:17">
+    <row r="794" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A794">
         <v>193812</v>
       </c>
@@ -42547,7 +42548,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="795" spans="1:17">
+    <row r="795" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A795">
         <v>161514</v>
       </c>
@@ -42600,7 +42601,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="796" spans="1:17">
+    <row r="796" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A796">
         <v>89922</v>
       </c>
@@ -42653,7 +42654,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="797" spans="1:17">
+    <row r="797" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A797">
         <v>67308</v>
       </c>
@@ -42706,7 +42707,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="798" spans="1:17">
+    <row r="798" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A798">
         <v>196657</v>
       </c>
@@ -42759,7 +42760,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="799" spans="1:17">
+    <row r="799" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A799">
         <v>94671</v>
       </c>
@@ -42812,7 +42813,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="800" spans="1:17">
+    <row r="800" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A800">
         <v>129059</v>
       </c>
@@ -42865,7 +42866,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="801" spans="1:17">
+    <row r="801" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
       <c r="A801">
         <v>243403</v>
       </c>
@@ -42919,7 +42920,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q801" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q801" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="192.168.0.152"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
